--- a/answers.xlsx
+++ b/answers.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="144">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -457,65 +457,6 @@
     <t>Setting clearer deadlines earlier., Communicating more frequently., Assigning a group leader or coordinator.</t>
   </si>
   <si>
-    <t>farmand2000@gmail.com</t>
-  </si>
-  <si>
-    <t>Farmand Bazdiditehrani</t>
-  </si>
-  <si>
-    <t>S: Data Documentation team was working on gathering and compiling all the input data, and then based on the bus stations they compiled in both regions, we had to continue working on them.
-T: Our main task was to crawl the data (the distance and time of each bus stops) and create a matrix according to that. All these efforts were made to provide the input data for algorithms when they need to calculate the distances.
-A: In the beginning, I did some research on what options do we have for crawling and we found Valhalla, Graphhopper, and OSRM. We decided to try all of them. After crawling the data using these three tools (I and someone else worked on OSRM), we started to compare them. We decided on Graphhopper after assessing its advantages regarding the car/bus profile options. Then, we decided to create the sparse matrix. Nina started it, and I also added further analysis on how we can make it sparse, and shared my python notebook. My final contribution was manual double-checking whether the stations are two-way or not, and checking the coordinates, and I helped in listing the flaws of the input data which needed to be taken care of for the very final sparse matrix.
-R: Two sparse matrix for distances were created, also time matrices were created, but they were of no use in our case. We also identified the problematic stations and it was taken into account for the next steps.</t>
-  </si>
-  <si>
-    <t>Technical: Data Crawling using OSRM tool, needed environment setup + usual data analysis with python + Excel sheet analysis
-Soft skills: Time management, Responsibility, Communication and teamwork in our group chat, Data documenting in our Google Docs, Critical thinking (for example, regarding the logic for creating the sparse matrix, we had some insightful discussions), and problem-solving</t>
-  </si>
-  <si>
-    <t>Peer support and collaboration., Role assignments and contributions needed slight improvment</t>
-  </si>
-  <si>
-    <t>Nothing, current approach was effective., I haven't chosen unequal distribution option, because it was really not the case, but could have been slightly better!</t>
-  </si>
-  <si>
-    <t>These 4 options were already there.</t>
-  </si>
-  <si>
-    <t>2 - "I was easy to work with. I listened to others, shared my ideas respectfully, and supported group decisions. I didn't cause friction and I stayed engaged."</t>
-  </si>
-  <si>
-    <t>S: All the previous steps (data documentation, and matrix creation) were preliminary steps to provide the right data for this group to develop algorithms to find proper solutions regarding our main project task, which was finding optimal bus routes for students of the two regions.
-T: This group was asked to research the literature to find the relevant work on this field, and then select proper algorithms to continue with. Then, new sub-groups had to be formed to work on developing the algorithms.
-A: I joined this group after the research part was done, and linear programming and simulated annealing were already chosen. I joined the SA group, and continued on what was built up to that point. At first, I had to go through all the code which was created. Then, over the course of weeks before Christmas break, I contributed to refine the code (sa_refined branch on the repo) and then Ghaith and I worked on adding missing features, or the parts that needed to be changed to perform better. Leading to the last couple of weeks, my contributions were less than before and I tried to help in brainstorming for ideas and running the codes. Also, in the middle of this period, I tried twice to build a new code from scratch, but both led to weaker results compared to the main SA code that we were working on.
-R: Each week, although little, but we had improvements, and sometimes we faced dead-ends (such as the problem with the transfer logic), but the final result were satisfactory in my opinion. The code itself became complex and with many layers, but they all helped to achieve better results.</t>
-  </si>
-  <si>
-    <t>Techincal: Python coding, debugging, Metaheuristic parameter tuning
-Soft: Time management, Communication, Brainstorming and teamwork, Critical Analysis, Collaboration</t>
-  </si>
-  <si>
-    <t>Somewhat chaotic</t>
-  </si>
-  <si>
-    <t>Unequal workload distribution., Working on programming tasks in groups is generally not so easy to break down and distribute, but the workload was not really balanced.</t>
-  </si>
-  <si>
-    <t>S: The algorithms generate some results, but these results should have been evaluated to see whether they are worthwhile or not. Also, these results should be compared to the current condition of bus lines operating.
-Task: Following the description above, that's why this group was needed to prepare the baseline (the current one) and compare to it to have an overview and evaluation. At first, the current bus lines should have been extracted to lay the baseline, and then different metrics should have been indicated to assess the algorithms based on them.
-Action: I joined this group from the beginning. At first, these two were supposed to be two different groups but they were quickly merged. My contribution to this group was not much unfortunately, because other members were fortunately active! I was present in the very first virtual meeting where we discussed what we want to do and how to proceed. Other members started working on gathering the current bus lines and extracting the lines, and then they were adapted to check how many pupils are assigned and other stuff. I kept up with what's going on in this group, but because I was in the SA algorithm team at the same time, I was not able to contribute much.
-Result: Well baseline was fitted as best as possible and then based on the proposed metrics, the algorithms were evaluated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Tasks and deadlines were clearly defined and well managed., Tasks were mostly taken spontaneously.</t>
-  </si>
-  <si>
-    <t>4 - "I wasn't fully present. I relied on the group to carry most of the weight and my output was significantly lower than others."</t>
-  </si>
-  <si>
     <t>Ghaith.a.a.al-dailami@stud.leuphana.de</t>
   </si>
   <si>
@@ -550,19 +491,6 @@
   </si>
   <si>
     <t>Documenting decisions and progress., Communicating more frequently.</t>
-  </si>
-  <si>
-    <t>S: Every part of the project is done, and only the presentation to the Landkreis is remaining!
-T: Create a exhaustive presentation of all steps and all the results.
-A: I only helped in the slides of SA algorithm and helped to add some parts of the content, adjust the slides and refine them to be ready for presentation. + As an additional contribution, since I was not sure where to add this, but I helped in 5 (?!) weeks to write down the class protocols, in order to have everything recorded/documented and to be able to get back to what have been done and what was discussed!
-Result: I believe the slides and the presentation conveyed our group project in a great way!</t>
-  </si>
-  <si>
-    <t>Technical: -
-Soft Skills: Collaboration for creating the PowerPoint</t>
-  </si>
-  <si>
-    <t>Nothing in particular</t>
   </si>
   <si>
     <t>ayesha.jabeen@stud.leuphana.de</t>
@@ -592,6 +520,81 @@
   </si>
   <si>
     <t>I would suggest we keep better track of each participant’s individual efforts. For example, I pushed code earlier and it was visible at that time, but later the commit history was changed and now my commits are not visible anymore. In the future, we should use pull requests, issues, or a small contribution log so everyone’s work remains documented.</t>
+  </si>
+  <si>
+    <t>S: Upon I entered the algorithm team (Simulated Annealing team), there was a code that defined the overall structure but was not usable in real-life situations due to its randomness and how naive it was.
+T: The goal was to change the whole code of the Simulated  Annealing algorithm to make it comply with all the constraints and to make it yield the results desired.
+A: I took over the code that was already made, but it was random and naive. The code had many flaws that I fixed as a first stage, then improved in as a second stage. Flaws like considering any zero in the sparse matrix to be 5, randomly assigning students in a greedy way, and making buses run around serving schools randomly. All of these things were fixed, making the code respect the sparse matrix's logic, and students were assigned based on where they should go and buses were assigned specific schools or clusters to avoid zigzagging. As for the improvements: I implemented the clustering logic, and then the wedge analysis or the sub-regions based on where students live so that the buses don't circle around. I defined which students are eligible to swap with who. I implemented the transfer logic, that failed (miserably). Most of the other details as well, like preventing ribbons, and making the bus route start from the student living fathest away from the school. Furthermore, I coded the rules of what buses get merged with other buses to enchace utilization. In the end, I Created solutions 1 and 2 that focused on comfort and efficiency respectively. 
+R: the solutions presented on the presentation are the results of all of that mentioned above. Simulated Annealing reached a solution of almost no violations with very good routes overall.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I learned all about simulated annealing. I learned more about GitHub and how to use it in a more efficient way. 
+I also learned a lot about metaheuristic algorithms and methods. 
+I got to know how to debug in a better way, and got familiar with some error types because there were so many errors. Like a lot.
+I got to really understand the importance of functions and classes.
+I also got more familiar with OOP coding. </t>
+  </si>
+  <si>
+    <t>Somewhat chaotic</t>
+  </si>
+  <si>
+    <t>Resolved by one person without discussion.</t>
+  </si>
+  <si>
+    <t>No, working alone would have been easier and more effective.</t>
+  </si>
+  <si>
+    <t>I dunno, how polite we all were?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documenting decisions and progress., Communicating more frequently., Take initiative to take over tasks and seek for alternative solutions and methodologies. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S: Combining all of what was done in Simulated Annealing into some slides and presenting them.
+T: The goal was to have very neat, concise and informative slides that showed the overall picture of the whole Simulated Annealing algorithm and results.
+A: I recreated the already made slides to make them more appealing (I got help from other students too). I also tried my best to make the language not as technical. I also decided on what reaults to show and what not to (I also got help from others to decide on that). I also presented the Simulated Annealing part.
+R: The outcome was the very nice presentation we all saw of February the Fourth :)
+Slides were concise, and the overall objective of the task was achieved. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to work around technical terms to make them understandable by different audiences that don't come from the same academic or technical background. </t>
+  </si>
+  <si>
+    <t>Tasks were divided, but deadlines were inconsistent or unclear.</t>
+  </si>
+  <si>
+    <t>Setting clearer deadlines earlier., Documenting decisions and progress.</t>
+  </si>
+  <si>
+    <t>Mohamed.kh.elsafty@gmail.com</t>
+  </si>
+  <si>
+    <t>Mohamed Elsafty</t>
+  </si>
+  <si>
+    <t>Situation
+School bus routes in the Lüneburg region were optimized using 3 algorithms (SA, GA, LP), but the results were just raw CSV/Excel files. There was no way to visually see or compare the routes on a map.
+Task
+Build an interactive dashboard to display all algorithm outputs and the baseline routes on a real map, so the team can visually evaluate and compare them.
+Action
+Built a Streamlit web app (app.py) with 5 pages: SA, GA, LP, Baseline route maps + Distance Matrix view.
+Created geometry scripts that use GraphHopper to generate real road-following paths for each route.
+Used PyDeck for interactive maps with colored routes, stop markers, tooltips, and region boundaries.
+Result
+A fully interactive dashboard where all 4 route solutions are displayed on real road maps with color-coded routes, clickable stops, and side-by-side comparison — turning raw data into a clear, visual tool for decision-making.</t>
+  </si>
+  <si>
+    <t>Technical:
+Learned how to build interactive web apps with Streamlit and display routes on real maps using PyDeck
+Figured out how to use GraphHopper to turn a list of bus stops into actual road-following paths on the map
+Got better at handling GPS coordinates and matching stop names to locations
+Learned to write batch scripts that pre-generate all route geometries so the dashboard loads fast
+Soft:
+Learned to work with outputs from 3 different algorithm teams and bring everything together into one tool
+Improved at thinking from the user's perspective — making the dashboard simple enough for someone unfamiliar with the code to understand the routes</t>
+  </si>
+  <si>
+    <t>Nothing in particular worked well.</t>
   </si>
 </sst>
 </file>
@@ -628,12 +631,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -723,7 +735,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:R24" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:R23" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="18">
     <tableColumn name="Zeitstempel" id="1"/>
     <tableColumn name="E-Mail-Adresse" id="2"/>
@@ -1917,7 +1929,7 @@
     </row>
     <row r="18" ht="22.5" customHeight="1">
       <c r="A18" s="2">
-        <v>46062.77215601852</v>
+        <v>46062.91785037037</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>113</v>
@@ -1926,13 +1938,13 @@
         <v>114</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="E18" s="4">
-        <v>45965.0</v>
+        <v>45951.0</v>
       </c>
       <c r="F18" s="4">
-        <v>46000.0</v>
+        <v>46057.0</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>115</v>
@@ -1944,84 +1956,84 @@
         <v>46</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="M18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="P18" s="3" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="22.5" customHeight="1">
       <c r="A19" s="2">
-        <v>46062.801923946754</v>
+        <v>46062.92984726852</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="E19" s="4">
-        <v>45993.0</v>
+        <v>45951.0</v>
       </c>
       <c r="F19" s="4">
-        <v>46057.0</v>
+        <v>46003.0</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="R19" s="3" t="s">
         <v>75</v>
@@ -2029,22 +2041,22 @@
     </row>
     <row r="20" ht="22.5" customHeight="1">
       <c r="A20" s="2">
-        <v>46062.82960336805</v>
+        <v>46063.0989362963</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="E20" s="4">
-        <v>45993.0</v>
+        <v>45958.0</v>
       </c>
       <c r="F20" s="4">
-        <v>46042.0</v>
+        <v>46057.0</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>125</v>
@@ -2053,257 +2065,201 @@
         <v>126</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="22.5" customHeight="1">
-      <c r="A21" s="2">
-        <v>46062.91785037037</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="5">
+        <v>46063.96014556713</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="7">
+        <v>45989.0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>46057.0</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="I21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="4">
-        <v>45951.0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>46057.0</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="K21" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="L21" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O21" s="3" t="s">
+      <c r="M21" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="N21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="P21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="Q21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="R21" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" ht="22.5" customHeight="1">
-      <c r="A22" s="2">
-        <v>46062.92984726852</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="4">
-        <v>45951.0</v>
-      </c>
-      <c r="F22" s="4">
-        <v>46003.0</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="A22" s="5">
+        <v>46063.96648971065</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="7">
+        <v>46049.0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>46057.0</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J22" s="3" t="s">
+      <c r="I22" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L22" s="3" t="s">
+      <c r="K22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O22" s="3" t="s">
+      <c r="M22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="O22" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="P22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="Q22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>75</v>
+      <c r="R22" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="22.5" customHeight="1">
-      <c r="A23" s="2">
-        <v>46062.957910428246</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="4">
-        <v>46048.0</v>
-      </c>
-      <c r="F23" s="4">
-        <v>46057.0</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="A23" s="5">
+        <v>46064.593813472224</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="C23" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" s="3" t="s">
+      <c r="D23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="7">
+        <v>45993.0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>46064.0</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N23" s="3" t="s">
+      <c r="L23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="N23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" ht="22.5" customHeight="1">
-      <c r="A24" s="2">
-        <v>46063.0989362963</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="4">
-        <v>45958.0</v>
-      </c>
-      <c r="F24" s="4">
-        <v>46057.0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P24" s="3" t="s">
+      <c r="O23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="Q23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="R23" s="6" t="s">
         <v>32</v>
       </c>
     </row>

--- a/answers.xlsx
+++ b/answers.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="246">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -595,6 +595,463 @@
   </si>
   <si>
     <t>Nothing in particular worked well.</t>
+  </si>
+  <si>
+    <t>farmand2000@gmail.com</t>
+  </si>
+  <si>
+    <t>Farmand Bazdiditehrani</t>
+  </si>
+  <si>
+    <t>S: Data Documentation team was working on gathering and compiling all the input data, and then based on the bus stations they compiled in both regions, we had to continue working on them.
+T: Our main task was to crawl the data (the distance and time of each bus stops) and create a matrix according to that. All these efforts were made to provide the input data for algorithms when they need to calculate the distances.
+A: In the beginning, I did some research on what options do we have for crawling and we found Valhalla, Graphhopper, and OSRM. We decided to try all of them. After crawling the data using these three tools (I and someone else worked on OSRM), we started to compare them. We decided on Graphhopper after assessing its advantages regarding the car/bus profile options. Then, we decided to create the sparse matrix. Nina started it, and I also added further analysis on how we can make it sparse, and shared my python notebook. My final contribution was manual double-checking whether the stations are two-way or not, and checking the coordinates, and I helped in listing the flaws of the input data which needed to be taken care of for the very final sparse matrix.
+R: Two sparse matrix for distances were created, also time matrices were created, but they were of no use in our case. We also identified the problematic stations and it was taken into account for the next steps.</t>
+  </si>
+  <si>
+    <t>Technical: Data Crawling using OSRM tool, needed environment setup + usual data analysis with python + Excel sheet analysis
+Soft skills: Time management, Responsibility, Communication and teamwork in our group chat, Data documenting in our Google Docs, Critical thinking (for example, regarding the logic for creating the sparse matrix, we had some insightful discussions), and problem-solving</t>
+  </si>
+  <si>
+    <t>Peer support and collaboration., Role assignments and contributions needed slight improvement</t>
+  </si>
+  <si>
+    <t>Nothing, current approach was effective., I haven't chosen unequal distribution option, because it was really not the case, but could have been slightly better!</t>
+  </si>
+  <si>
+    <t>These 4 options were already there.</t>
+  </si>
+  <si>
+    <t>2 - "I was easy to work with. I listened to others, shared my ideas respectfully, and supported group decisions. I didn't cause friction and I stayed engaged."</t>
+  </si>
+  <si>
+    <t>S: All the previous steps (data documentation, and matrix creation) were preliminary steps to provide the right data for this group to develop algorithms to find proper solutions regarding our main project task, which was finding optimal bus routes for students of the two regions.
+T: This group was asked to research the literature to find the relevant work on this field, and then select proper algorithms to continue with. Then, new sub-groups had to be formed to work on developing the algorithms.
+A: I joined this group after the research part was done, and linear programming and simulated annealing were already chosen. I joined the SA group, and continued on what was built up to that point. At first, I had to go through all the code which was created. Then, over the course of weeks before Christmas break, I contributed to refine the code (sa_refined branch on the repo) and then Ghaith and I worked on adding missing features, or the parts that needed to be changed to perform better. Leading to the last couple of weeks, my contributions were less than before and I tried to help in brainstorming for ideas and running the codes. Also, in the middle of this period, I tried twice to build a new code from scratch, but both led to weaker results compared to the main SA code that we were working on.
+R: Each week, although little, but we had improvements, and sometimes we faced dead-ends (such as the problem with the transfer logic), but the final result were satisfactory in my opinion. The code itself became complex and with many layers, but they all helped to achieve better results.</t>
+  </si>
+  <si>
+    <t>Techincal: Python coding, debugging, Metaheuristic parameter tuning
+Soft: Time management, Communication, Brainstorming and teamwork, Critical Analysis, Collaboration</t>
+  </si>
+  <si>
+    <t>Unequal workload distribution., Working on programming tasks in groups is generally not so easy to break down and distribute, but the workload was not really balanced.</t>
+  </si>
+  <si>
+    <t>S: Every part of the project is done, and only the presentation to the Landkreis is remaining!
+T: Create a exhaustive presentation of all steps and all the results.
+A: I only helped in the slides of SA algorithm and helped to add some parts of the content, adjust the slides and refine them to be ready for presentation. + As an additional contribution, since I was not sure where to add this, but I helped in 5 (?!) weeks to write down the class protocols, in order to have everything recorded/documented and to be able to get back to what have been done and what was discussed!
+Result: I believe the slides and the presentation conveyed our group project in a great way!</t>
+  </si>
+  <si>
+    <t>Technical: -
+Soft Skills: Collaboration for creating the PowerPoint</t>
+  </si>
+  <si>
+    <t>Nothing in particular</t>
+  </si>
+  <si>
+    <t>Aadithy@stud.leuphana.de</t>
+  </si>
+  <si>
+    <t>.  Aadithy</t>
+  </si>
+  <si>
+    <t>S: With the given problem to identify the optimal routes, we were dealing with a lot of data sets and files on which to perform analysis and draw valuable insights was difficult. It was also important to understand how each algorithm used in the project performed on th high level (optimal route problem). The data that comes out of the problem are often complex to understand and comprehend.
+T : As the visualisation team, the goal was to bridge the gap between complex data sets and the target to be found by analysing and visualisation of these data sets, looking at which the team could carry out performance comparisons and outlook of the various algorithm they are trying out.
+Action : The team decided to come up with the concept of a visualisation dashboard, that solves two main use cases;
+1. Map visualisation: Provides a visual interpretation of the final route data through maps that each algorithm provide and breaks down it further to several meaningful insight to analyze on. Each algorithm has its own map boards where detailed information obtained from the particular algorithm is visualised.
+2. Csv Dashboard : Provides a platform for the team to check and perform basic analysis on the several data sets they come across. It also contain a sql query injection where the team could take only required data from a data set and perform basic plotting ( bar graph, scatter plot, histogram, heat maps etc) to derive basic insights that could be helpful for their further processing.
+My contribution :
+Worked on the dashboard ideation and set of libraries that could come in handy.
+Worked on the CSV Dashboard 
+Result:
+The map feature was a sure hit as it was used to generate map plots of different route optimization from the algorithms. It really helped the team to analyse and correct the algorithm in case of error and understand how certain algorithm behaves on  high level.
+Csv Dashboard initially grabbed a good attention of the team and the professor as it gave out an open-source tool for all to check any csv data , plot and analyze how certain columns performed or behaved within the data set. The sql feature also enabled to upload route files from multiple route files and compare them on spot by plots.</t>
+  </si>
+  <si>
+    <t>Transparency 
+Team play
+Importance of documentation
+Good leadership 
+Dashboard development using streamlit 
+Working of LP, SA and GA and how they look in real.</t>
+  </si>
+  <si>
+    <t>Setting clearer deadlines earlier., Assigning a group leader or coordinator.</t>
+  </si>
+  <si>
+    <t>3 -  "I mostly narrated events without digging into how I felt or what I actually took away from the challenges."</t>
+  </si>
+  <si>
+    <t>jannik.j.schneider@stud.leuphana.de</t>
+  </si>
+  <si>
+    <t>Jannik</t>
+  </si>
+  <si>
+    <t>S: a big group of students have to be organised to collaborate effectively 
+T: a somewhat not pathetic presentation, proposing optimised bus routes for the KVG in the Landkreis of Lüneburg.
+A: setting up Google Docs, weekly agenda &amp; GitHub Repo; preparing and moderating weekly in class sessions, coordination of goals and deadlines for groups
+R: final results were handed in before the presentation; resulting into a nice outcome</t>
+  </si>
+  <si>
+    <t>Moderating classes with more or less active participation (especially learnt to endure and embrace the silence).
+Improved my protocol writings.
+Managing and coordinating groups is often tedious but it pays off.</t>
+  </si>
+  <si>
+    <t>No clear planning, as tasks often arose along the way und were sometimes unforeseen.</t>
+  </si>
+  <si>
+    <t>The group should not be involved into so many other groups. I often felt like a double agent with different roles. Next time, I will clearly set boundaries. I think my involvement led to me not being able to fully commit. I was sometimes overwhelmed with my tasks from my other groups, leading to setting aside the management role (to some extent) towards the end.</t>
+  </si>
+  <si>
+    <t>Nothing needs to be adjusted, everything worked rather well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S: unstructured und not complete datasets
+T: providing a structured dataset for the algorithms to work with
+A: reading the law paragraphs to derive necessary constraints; enriching our dataset, support in making it concise; write a read me file.
+R: clean and clear datasets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">General data cleaning skills of real world data. Providing a structured and transparent documentation so external people can understand what happened and what the data is about they are working with. Also I engaged with (simple) German law texts for the first time and filtered it for relevant information. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After a somewhat chaotic first week, we got all on the same page quickly. In future, we could have a proper first meeting before work starts seriously. </t>
+  </si>
+  <si>
+    <t>Pei.I.Wu@stud.leuphana.de</t>
+  </si>
+  <si>
+    <t>Pei-I Wu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Situation:
+Our group was tasked with researching and implementing optimization algorithms for the School Bus Routing Problem. After conducting initial joint research, we selected Simulated Annealing (SA) and divided into two independent sub-teams. However, early SA implementation yielded unsatisfactory results, and the sub-team assigned to researching a second algorithm did not produce a concrete outcome. Mid-semester organizational changes, including leadership shifts and uneven participation, required team restructuring.
+Task:
+Initially, I contributed to both the research and implementation of SA. After restructuring, I was assigned to research Genetic Algorithm (GA) from scratch and later took primary responsibility for its implementation. This required completing a second full research-to-implementation cycle within the same semester while ensuring the project remained on track.
+Action:
+• Conducted literature research for both SA and GA, identifying techniques applicable to our routing problem.
+• Contributed to the SA prototype development (neighborhood search and cooling schedule).
+• Designed the GA architecture, including encoding strategy, fitness function, and genetic operators.
+• Implemented the core GA workflow and took primary responsibility for its technical development, integrating it with the provided datasets and evaluation setup.
+• Refined and debugged the model through multiple iterations based on feedback provided in class.
+• Prepared technical explanations and documentation to support the team’s presentation.
+Result:
+The final GA model produced stable and improved routing results, enabling the team to deliver a functional optimization solution despite mid-semester disruptions. Personally, I completed two full research-to-implementation cycles within one semester and strengthened my ability to translate optimization theory into practical, working code under time constraints.
+</t>
+  </si>
+  <si>
+    <t>During this project, I significantly strengthened my technical understanding of metaheuristic optimization methods, particularly in designing and implementing Genetic Algorithms from theoretical foundations. I improved my ability to translate abstract algorithmic concepts into structured and functional code, as well as to debug and iteratively refine complex systems under time constraints.
+Beyond technical skills, I developed greater resilience and independence in problem-solving. Working through organizational instability required me to manage ambiguity, maintain focus, and continue making progress without relying heavily on structured team support. I also improved my ability to communicate technical logic clearly to teammates with different levels of programming experience, which strengthened my capacity to bridge technical and non-technical perspectives.</t>
+  </si>
+  <si>
+    <t>Slight improvement compared to working alone.</t>
+  </si>
+  <si>
+    <t>Regular communication and meetings., Clear role assignment.</t>
+  </si>
+  <si>
+    <t>Poor time management., Unequal workload distribution.</t>
+  </si>
+  <si>
+    <t>Setting clearer deadlines earlier., Documenting decisions and progress., Assigning a group leader or coordinator.</t>
+  </si>
+  <si>
+    <t>Situation:
+The final presentation required the team to clearly communicate the development process and results of our optimization algorithms. Since much of the technical implementation had been developed by me, it was important that the presentation accurately reflected the underlying algorithmic logic and design decisions.
+Task:
+My role was to contribute to structuring the presentation and to ensure the technical accuracy of the content. While another team member delivered the oral presentation, I focused on the algorithm-related sections and supported the presenter with detailed explanations.
+Action:
+•	Contributed to organizing the presentation structure (problem definition → methodology → algorithm design → results).
+•	Prepared and edited the technical slides to ensure clarity and logical coherence.
+•	Drafted and revised the script for the algorithm-related sections.
+•	Explained key technical concepts to the presenting team member to ensure accurate delivery.
+•	Participated in reviewing and refining the slides prior to the final presentation.
+Result:
+The final presentation clearly conveyed the technical development and results of the project. The presenter was able to deliver the content smoothly, and the algorithmic logic was communicated accurately to the audience. The collaboration allowed the team to maintain both technical depth and clarity in communication.</t>
+  </si>
+  <si>
+    <t>Through my participation in the Presentation group, I improved my ability to translate complex technical content into clear and structured communication. Preparing slides and drafting the script for algorithm-related sections strengthened my skill in simplifying abstract concepts without losing technical accuracy.
+I also developed stronger collaborative skills by aligning my technical explanations with the presenting team member’s communication style. This experience enhanced my awareness of how technical depth and clarity must be balanced when addressing different audiences.</t>
+  </si>
+  <si>
+    <t>mohammad.t.m.i.momin@stud.leuphana.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabish Momin </t>
+  </si>
+  <si>
+    <t>Situation: In our project, we tackled a school bus route optimization problem aimed at minimizing total travel time for three categories of students. The challenge was to design efficient routes while respecting constraints such as commute time limits, school start times, travel distance, and operational feasibility.
+Task : Our objective was to formally structure the routing problem, identify and model all mathematical constraints including bus capacity, travel distance, operating cost, and time restrictions and select the most suitable optimization algorithm to minimize total route distance while ensuring full service coverage and efficiency.
+Action : We transformed the routing challenge into a mathematical optimization model by defining decision variables such as bus to route assignments and stop sequencing. We formulated key constraints including bus capacity limits, maximum allowable commute time, demand fulfillment, and alignment with school start times, and defined an objective function to minimize total travel distance and operational cost. To identify the most effective solution approach, we evaluated multiple optimization techniques, including Linear Programming, Genetic Algorithms, Lin-Kernighan-Helsgaun (LKH) adaptation, Black Hole Optimization, Ant Colony Optimization, and Simulated Annealing. Considering the multi-vehicle and multi-stop complexity of the problem, we modeled it as a Vehicle Routing Problem (VRP). We then successfully implemented a Simulated Annealing (SA) algorithm to solve the VRP, enabling efficient exploration of the solution space while avoiding local minima. The model was validated against all constraints, and iteratively tuned to enhance route efficiency and cost performance. Additionally, we incorporated a detailed explanation of the Simulated Annealing approach into our project presentation.
+Result: The final optimized model significantly reduced total route distance, lowered operational time, and decreased the number of buses required, while improving overall route efficiency. It performed particularly well in the southern regions and demonstrated strong scalability across different datasets. Overall, the solution provided a practical, data driven framework that enhanced operational planning and supported more effective strategic decision making.</t>
+  </si>
+  <si>
+    <t>During my participation in the group project, I developed both strong technical and interpersonal skills.
+From a technical perspective, I gained a deeper understanding of optimization methods, particularly the Vehicle Routing Problem (VRP) and its practical applications. I improved my ability to convert real world challenges into structured mathematical models by defining decision variables, constraints, and objective functions. I also strengthened my ability to analyze and compare different algorithms, including shortest path techniques and advanced routing models, to determine the most suitable approach. A key learning experience was implementing an optimization algorithm for a real world case study with multiple operational constraints, such as capacity limits, commute time restrictions, and scheduling requirements. This enhanced my problem-solving and data analysis skills as I tested, validated, and refined the model to ensure feasibility and performance.
+On the soft skills side, I enhanced my teamwork and collaboration abilities by effectively dividing responsibilities and discussing alternative solution strategies within the group. I improved my communication skills by clearly explaining complex technical concepts and algorithmic decisions to team members. Additionally, I strengthened my time management and organizational skills to ensure milestones were met within deadlines. Evaluating different approaches and interpreting results also sharpened my critical thinking and decision making abilities.</t>
+  </si>
+  <si>
+    <t>Documenting decisions and progress., Assigning a group leader or coordinator.</t>
+  </si>
+  <si>
+    <t>Archana.Yelkur@stud.leuphana.de</t>
+  </si>
+  <si>
+    <t>Archana Yelkur</t>
+  </si>
+  <si>
+    <t>Situation: In our project, we addressed a route optimization problem to design efficient bus routes. The objective was to minimize total travel time for 3 types of school students while considering constraints such as distance, allowed commute time, school start time, etc.
+Task: Our goals were to clearly define the problem, identify all mathematical constraints (capacity, distance, cost, and time), select an appropriate algorithm, and optimize routes to reduce operational distance while maintaining efficiency and coverage. 
+Action: First we converted the routing challenge into a mathematical optimization model by defining decision variables such as bus route assignments and stop sequences. We formulated constraints for bus capacity, maximum route length, demand satisfaction, and time limits, and expressed the objective function to minimize total distance and operating cost. We then analyzed several algorithms: Linear Programming, Genetic Algorithm, LKH Adaptation, Black Hole Approach, Ant Colony Optimization, Simulated Annealing, etc, to understand shortest-path structures, a TSP formulation for single-vehicle routing, and finally a Vehicle Routing Problem (VRP) model, which best captured multiple buses, multiple stops, and capacity constraints. We came up with a research paper with the same problem which used SA Algorithm. We then successfully implemented a Simulated Annealing (SA) algorithm to solve the VRP. The SA approach allowed us to efficiently explore the solution space and avoid local minima. We implemented the optimization model, tested it with data, validated feasibility against constraints, and iteratively refined parameters to improve route efficiency and cost performance. We also added the information of the SA algorithm for the presentation.
+Result: The optimized model reduced total route distance, lowered operational costs, lowered the number of buses and improved overall route efficiency. It performed well on both regions especially in the south. It also provided a scalable, data-driven solution that supported better business planning and decision-making.</t>
+  </si>
+  <si>
+    <t>During my participation in the group, I improved both technical and soft skills.
+Technical skills:
+I gained a deeper understanding of optimization techniques and the Vehicle Routing Problem (VRP). I improved my ability to formulate real-world problems into mathematical models, including defining decision variables, constraints, and objective functions. I strengthened my algorithm analysis skills by comparing methods such as shortest-path algorithms and routing models. I enhanced my data analysis and problem-solving skills while testing and refining the model.
+Soft skills:
+I improved teamwork and collaboration, as we divided tasks and discussed different solution approaches. I developed better communication skills by explaining technical ideas clearly to teammates. I strengthened time management and organization, ensuring tasks were completed within project deadlines. I enhanced critical thinking, especially when evaluating alternative algorithms and interpreting results.</t>
+  </si>
+  <si>
+    <t>Situation
+The project needed distance and travel time matrices between all bus stops to plan routes — but this data didn't exist. The raw stop data only had UTM coordinates, not real driving distances or times.
+Task
+Set up a routing engine and calculate real-world driving distance and time matrices (stop-to-stop) for both the North and South regions, so the algorithm teams could use them as input.
+Action
+Set up a local GraphHopper server using the Niedersachsen (Lower Saxony) OpenStreetMap data with a car routing profile
+Wrote a Python script that converts bus stop coordinates from UTM (EPSG:25832) to GPS (lat/lon), then queries GraphHopper for every stop pair to get real driving distance (km) and time (min)
+Generated 4 output matrices: distance &amp; time for North and South 
+Also saved a stops_gps.xlsx file with all stops converted to GPS coordinates, which was reused by the whole project
+Created startup scripts (.sh / .bat) and documentation so teammates could rerun it easily
+Result
+Delivered 4 Excel matrix files with real road-based distances and times that became the foundation input for all algorithm teams. Also produced the GPS coordinates file used across the entire project (visualization, algorithms, evaluation).</t>
+  </si>
+  <si>
+    <t>Technical:
+Setting up a GraphHopper routing server with OpenStreetMap data
+Coordinate conversion (UTM → GPS) using pyproj
+Querying routing APIs and building distance/time matrices from the responses
+Soft:
+Delivering reliable foundational data that 3 algorithm teams depended on
+Writing clear documentation so others could rerun everything independently</t>
+  </si>
+  <si>
+    <t>Nothing specific</t>
+  </si>
+  <si>
+    <t>elvi.varghese@stud.leuphana.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elvi Varghese </t>
+  </si>
+  <si>
+    <t>The main problem was to work on a route optimization problem where we needed to find the best way to reduce the cost and improve performance and the problem was challenging since it had multiple constraints.
+Our goal was to study different optimization algorithms and implement a solution.
+We first researched optimization methods and used simulated annealing. Later, the group was split, and we worked with Genetic Algorithm.
+At first, the results of the genetic algorithm were not very good. After analyzing the issues and making improvements, we were able to significantly improve the performance. Through this process, we also learned from the simulated annealing approach and applied those learnings to refine our solution. By the end, the algorithm produced good results.</t>
+  </si>
+  <si>
+    <t>During my participation in the group, I gained some improvement in both technical and soft skills. I slightly improved my Python coding skills and developed a better understanding of how theoretical concepts can be applied to practical problems. Although I am still not very confident in coding, working with my teammates and attending group meetings helped me understand the basic implementation of algorithms.
+I also improved my communication and teamwork skills by collaborating with others and learning from their feedback.</t>
+  </si>
+  <si>
+    <t>Unequal workload distribution., Last-minute decision making.</t>
+  </si>
+  <si>
+    <t>Elvi.Varghese@stud.leuphana.de</t>
+  </si>
+  <si>
+    <t>Elvi Varghese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The group needed to present the genetic algorithm used for the route optimization problem in a clear way. Since the algorithm is technical, it was important to explain both the process and the results in a simple and understandable manner.
+The goal was to create a presentation that clearly visualized how the genetic algorithm works and highlighted the results of the project so the audience could easily follow the approach.
+I helped create PowerPoint slides that showed the steps of the genetic algorithm and visualized the results using diagrams and charts.
+The presentation clearly explained the algorithm and results, making the project easy to understand and successful.
+</t>
+  </si>
+  <si>
+    <t>During this group work, I improved my PowerPoint and presentation skills compared to my first semester. I became better at organizing content and presenting ideas in a clearer way. I am still learning, but this experience helped me feel more confident in creating presentations.</t>
+  </si>
+  <si>
+    <t>Poor time management., Last-minute decision making.</t>
+  </si>
+  <si>
+    <t>Setting clearer deadlines earlier., Documenting decisions and progress., Communicating more frequently., Assigning a group leader or coordinator.</t>
+  </si>
+  <si>
+    <t>S: how to evaluate different bus schedules for the same region &amp; demand.
+T: a concise analysis of different bus schedules &amp; deriving the current state of real bus schedules to compare the three proposed schedules with.
+A: provided a first draft of the assignment logic for the baseline, which Timur refined afterwards. Timur and Luca provided some drafts for the evaluation concepts and metrices which I continued working on and producing the figures for the presentation.
+R: a good narrative for the presentation with interesting insights about the different algorithms' outcomes.</t>
+  </si>
+  <si>
+    <t>I improved my ability to collaboratively break down complex tasks into actionable milestones and sharing/distributing tasks among the team.
+I significantly improved my coding proficiency and collaboration, working on multiple shared scripts. Additionally, I got first insights into the work with spatial data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing, current approach was effective., </t>
+  </si>
+  <si>
+    <t>Documenting decisions and progress., using GitHub right away</t>
+  </si>
+  <si>
+    <t>Avani.Jayaraj@stud.leuphana.de</t>
+  </si>
+  <si>
+    <t>Avani Jayaraj</t>
+  </si>
+  <si>
+    <t>Situation:
+In our project, we had to organize student transportation data for both the North and South regions. This included every student’s pick-up and drop-off details. However, the data had several inconsistencies, like incorrect or non-existent bus stops and possible errors in the distance matrix. We also had to consider multiple constraints such as pick-up time, commute limits, and different student categories before building the routing model.
+Task:
+My responsibility was to create a comprehensive student grid matrix and student demand matrix using Python. I also needed to make sure that all constraints were properly included and that the bus stop data and distance matrix were verified before we used them in the algorithm.
+Action:
+I used Python to build the student grid matrix, which included each student’s pick-up location, drop-off school, time windows, commute limits, categories, and regional separation. I also created the student demand matrix and exported the results into Excel so the team could review them easily. In addition, I manually checked whether the bus stops actually existed in both regions, corrected naming errors, removed non-existent stops, and cross-checked the distance matrix with actual distances. Whenever I found discrepancies, I informed the team so we could fix them together.
+Result:
+As a result, we developed accurate and constraint-based student grid and demand matrices that were ready for the routing algorithm. Cleaning the bus stop data and validating the distance matrix improved the accuracy of the routing process and ensured that students could reach their allocated schools within the required time limits.</t>
+  </si>
+  <si>
+    <t>On the technical side, I strengthened my Python programming, especially in data cleaning, structuring large datasets, and generating organized Excel outputs. I developed skills in matrix building, specifically creating the Student Grid Matrix and Student Demand Matrix by translating real-world constraints like pick-up times, commute limits, student categories, and regional separation into an algorithm-ready format. I also improved my data validation and analytical skills by manually verifying bus stop existence and cross-checking the distance matrices for Grasshopper and Valhalla to ensure the distances were accurate and geographically logical within the routing system.
+On the soft skills side, I enhanced my attention to detail by identifying incorrect and non-existent bus stops and preventing potential routing errors. I improved my problem-solving skills by understanding the geographical context before implementing solutions. Additionally, I developed stronger communication and teamwork skills by clearly discussing discrepancies with my group and collaboratively resolving issues to ensure accurate results.</t>
+  </si>
+  <si>
+    <t>Ensuring we all finish and verify our current tasks before moving to a new team, just so we can be certain everything is working perfectly before transitioning.</t>
+  </si>
+  <si>
+    <t>siddhi.k.chavan@stud.leuphana.de</t>
+  </si>
+  <si>
+    <t>Siddhi Kiran Chavan</t>
+  </si>
+  <si>
+    <t>Situation: The project focused on designing optimal bus routes to reduce student commuting time and ensure timely arrival at school. Since the operational area was divided into North and South regions, accurate data structuring and distance calculations were critical for effective route optimization.
+Task: My responsibility was to create the student demand (grid) matrix and support the development of the distance matrix for both regions. These matrices were foundational inputs for the routing and optimization stages of the project.
+Action: Using the data provided by the Data Documentation team, I developed the student grid matrix using Python programming, mapping student pickup and drop locations to represent demand distribution across the North and South regions. I also contributed to generating the distance matrix by working with routing tools such as GraphHopper and Valhalla to calculate distances between neighboring bus stops. I ensured consistency and accuracy in the matrix structure so it could be directly integrated into the optimization models. I additionally cross-verified key distance values to maintain data reliability.
+Result: The completed student demand and distance matrices provided accurate and well-structured inputs for the route optimization process. This enabled the next stages of the project to function efficiently and contributed to the development of optimized bus routes that minimized student travel time.</t>
+  </si>
+  <si>
+    <t>During my participation in the Data Crawling and Matrix Creation group, I improved both my technical and soft skills significantly.
+Technically, I strengthened my Python programming skills by not just analyzing data but actually building the complete student demand matrix and contributing to the distance matrix through coding. I learned how to structure raw geographical and student data into well-defined matrices that could be directly used for optimization. Working with tools like GraphHopper and Valhalla also enhanced my understanding of routing systems, geospatial data handling, and distance computation at scale. This experience helped me understand how critical backend data engineering is for algorithm-based projects.
+On the soft skills side, I improved my problem-solving ability, attention to detail, and coordination skills. Since matrix creation was a foundational step for the entire project, I developed a strong sense of responsibility and precision in my work. I also enhanced my communication skills by collaborating with different teams to ensure data consistency and smooth integration into the next stages.
+Overall, this experience strengthened my coding capability, data structuring skills, and my ability to work effectively in a technically demanding team environment.</t>
+  </si>
+  <si>
+    <t>In future projects, the group could focus on completing tasks fully before moving to the next tasks to ensure a smooth workflow and support the team effectively.</t>
+  </si>
+  <si>
+    <t>Questionnaire</t>
+  </si>
+  <si>
+    <t>S: we had to find a way for students to reflect on their contributions for the seminar
+T: ensuring a fair and transparent grading scheme via a self-assessment questionnaire. An interactive Marimo notebook to make these assessments transparent and explorable for students and the professor
+A: provided a somewhat finished questionnaire; created the Marimo notebook.
+R: the questionnaire and a Marimo notebook.</t>
+  </si>
+  <si>
+    <t>I substantially improved the skills to design an interactive Marimo dashboard; learnt how to encode excel data as a base64 string, so the notebook does not rely on external data, but can load it directly from the script.
+First time creating a self questionnaire, learnt about different grading schemes like STAR or Gibb's Reflective Cycle; first time working in a google forms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasks and deadlines were clearly defined and well managed., </t>
+  </si>
+  <si>
+    <t>I wasn't initially aware that the group had received support from my fellow students. As a result, I began working on the questionnaire independently before realising that support was available. After that, task division process was rather smooth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communicating right from the start. </t>
+  </si>
+  <si>
+    <t>Situation:
+Our group was tasked with creating a system for students to share their experiences and self-evaluate, which the professor would use to assess performance. Initially, there was a plan to send emails, but that would have required students to manually reply, which could be inefficient and inconsistent.
+Task:
+My responsibility was to create an online questionnaire that allowed students to provide meaningful feedback easily, including those who are less expressive, while also capturing detailed responses from students who wanted to elaborate. The goal was to make the process simple, fair, and accessible for everyone.
+Action:
+I designed and created the questionnaire using Google Forms, ensuring it included structured questions for clear responses and open-ended questions for more expressive students. I focused on making it intuitive and inclusive, so even introverted students could answer effectively. I also worked with the team to align the form with the professor’s marking criteria.
+Result:
+The Google Form allowed students to submit their feedback efficiently online, replacing the need for manual email responses. It captured both concise and detailed reflections, making it easy for the professor to assess students fairly. This improved accessibility, engagement, and accuracy in evaluating student experiences.</t>
+  </si>
+  <si>
+    <t>During this project, I improved both technical and soft skills. On the technical side, I learned how to use Google Forms to design and structure questionnaires that were both intuitive and inclusive, capturing meaningful feedback from all types of students. I also strengthened my data handling and organization skills for consistency and making sure the collected data could be easily used for assessment.
+On the soft skills side, I improved my attention to detail by carefully designing questions that worked for both expressive and introverted students. I also developed communication and teamwork skills by coordinating with the group to make sure the questionnaire aligned with the professor’s marking criteria, and problem-solving skills by finding a better solution than sending emails so that the process was efficient and user-friendly.</t>
+  </si>
+  <si>
+    <t>Nothing as such, as everything was smooth.</t>
+  </si>
+  <si>
+    <t>Situation: The project required a way for students to self-assess and for professors to evaluate them effectively. Previously, there was no streamlined system, and email-based assessments were inefficient and not always supportive for introverted students.
+Task: I was part of the Questionnaire group, responsible for creating the self-assessment questionnaire and ensuring it aligned with the university grading criteria. The goal was to design a system that allowed both students and professors to provide assessments in a structured, accessible, and fair manner.
+Action: I developed the questionnaire by carefully framing questions that captured both self-assessment and professor evaluation needs. To make the process more efficient and user-friendly, I implemented the questionnaire using Google Forms instead of email, which allowed easy submission, analysis, and tracking. I also designed the questions to support introverted students, ensuring they could reflect and respond comfortably. Throughout, I made sure the questionnaire aligned with the university’s grading criteria to maintain academic standards.
+Result: The self-assessment system was successfully implemented and well-received. It provided students with a structured way to evaluate themselves while giving professors an easy, consistent method to assess students. The approach improved accessibility, encouraged honest reflection, and ensured alignment with official grading standards, enhancing the overall assessment process.</t>
+  </si>
+  <si>
+    <t>During my participation in the Questionnaire group, I improved both technical and soft skills.
+On the technical side, I strengthened my skills in designing structured questionnaires that align with academic grading criteria and implemented them using Google Forms, which enhanced my understanding of digital tools for data collection and analysis.
+On the soft skills side, I improved my ability to communicate effectively through written questions, ensuring clarity and fairness for all students, including those who are more introverted. I also enhanced my attention to detail and critical thinking, making sure the questionnaire captured meaningful insights while remaining aligned with university standards.</t>
+  </si>
+  <si>
+    <t>Current approach was effective.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S: illustrating/showcasing the results of a whole seminars class work for the professor, as well as for the external KVG people and ofc our fellow students
+T: a concise presentation
+A: worked on the agenda for the evaluation section, creating figures and  a narrative. held the presentation
+R: a (not pathetic) final presentation.
+</t>
+  </si>
+  <si>
+    <t>improved presentation and powerpoint skills; reflected about colour schemes and the layout of figures and narratives.
+coordinating a presentation with many people.</t>
+  </si>
+  <si>
+    <t>lucrezia.chiappo@stud.leuphana.de</t>
+  </si>
+  <si>
+    <t>Chiappo Lucrezia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No perfect bus logistic
+Find the best algorithm to fit the problem
+I helped to choose the algorithm (GA) and code it to find the perfect solution
+GA algorithm run with working outcome
+</t>
+  </si>
+  <si>
+    <t>I improved my coding capabilities. I improved my ability to work in group and time management. I learned how ML can fit into logistic.</t>
+  </si>
+  <si>
+    <t>Lucrezia Chiappo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a good speech to present and good slides
+helped creating the speech and slides
+A good presentation for GA algorithm </t>
+  </si>
+  <si>
+    <t>How to create a good speech to explain all relevant topics.</t>
+  </si>
+  <si>
+    <t>Situation: I joined the research and algorithm group as part of the Genetic Algorithm team, which was working on solving the student routing problem with multiple constraints like pick-up/drop-off times, commute limits, and student categories. The team had already started the project, so much of the initial implementation and foundational work had been done before I joined.
+Task: My goal was to understand the mathematical approach behind the genetic algorithm and contribute to implementing it in code. I also needed to quickly learn the existing framework so I could actively participate and help improve the solution.
+Action: I studied the existing code and mathematical model, learning how constraints were handled and how the algorithm optimized bus routes. To test the robustness of the method, I implemented parts of the algorithm in a different way to compare outcomes and cross-verify that the approach was reliable. I contributed to coding, testing, and refining the algorithm while ensuring my work integrated with the existing framework.
+Result: I was able to contribute and verify the routing solution. My alternate implementation helped confirm the method’s reliability, and I gained hands-on experience in algorithm development, problem-solving, and coding optimization.</t>
+  </si>
+  <si>
+    <t>During this project, I significantly improved my technical proficiency in Python, specifically in implementing Genetic Algorithms to solve complex routing and constraint problems. I gained hands-on experience using libraries like Pandas and SciPy to manage large distance matrices and calculate shortest paths using Dijkstra’s algorithm. A key technical takeaway was learning how to build a cross-verification system by writing alternative code to double-check our results, ensuring the solution was mathematically sound. On the soft skills side, I developed strong adaptability by joining a team that was already in progress and quickly mastering the existing foundation. I also practiced analytical thinking and technical communication by creating automated Excel exports that made our algorithmic findings clear and accessible.</t>
+  </si>
+  <si>
+    <t>Situation: The task was to generate optimal bus routes using algorithms. The project required testing three different algorithmic approaches, and I joined the Genetic Algorithm team to help solve the routing problem while respecting the necessary constraints.
+Task: My task was to understand the mathematical approach behind the Genetic Algorithm and implement the concept in code. Since the team had already started the algorithm before I joined, I needed to familiarize myself with the existing foundation and structure of the code to contribute effectively.
+Action: I studied the existing code to understand its logic and constraints. Once I was comfortable with the foundation, I implemented the algorithm in a slightly different way to explore alternative outcomes. This helped cross-verify the results and assess whether the original method was producing optimal solutions. My work involved integrating constraints into the Genetic Algorithm, and ensuring the generated routes were feasible for both regions.
+Result: By contributing in this way, I helped the team verify and strengthen the solution, ensuring that the Genetic Algorithm produced accurate and practical bus routes. The approach allowed us to compare multiple outcomes and confirm that the algorithm effectively minimized student commuting times while respecting all constraints, ultimately leading to the project’s successful routing solution.</t>
+  </si>
+  <si>
+    <t>On the technical side, I deepened my understanding of algorithm design and optimization, particularly Genetic Algorithms, including concepts like population initialization, fitness calculation, mutation, and selection. I learned to translate complex mathematical constraints into functional code and work with structured data. I also gained hands-on experience in implementing alternative approaches to test and cross-verify solutions, debugging complex code, and integrating multiple components to ensure correctness and efficiency. Additionally, I improved my skills in working with Python libraries.
+On the soft skills side, I enhanced my problem-solving and analytical thinking by understanding complex algorithms and cross-verifying outcomes. I also improved my adaptability and collaboration skills, as I joined an ongoing project and had to quickly get up to speed with the team’s work and contribute effectively.</t>
   </si>
 </sst>
 </file>
@@ -735,7 +1192,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:R23" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:R47" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="18">
     <tableColumn name="Zeitstempel" id="1"/>
     <tableColumn name="E-Mail-Adresse" id="2"/>
@@ -2263,6 +2720,1350 @@
         <v>32</v>
       </c>
     </row>
+    <row r="24" ht="22.5" customHeight="1">
+      <c r="A24" s="5">
+        <v>46064.61931741898</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="7">
+        <v>45965.0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>46000.0</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" ht="22.5" customHeight="1">
+      <c r="A25" s="5">
+        <v>46064.62219465278</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="7">
+        <v>45993.0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>46057.0</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" ht="22.5" customHeight="1">
+      <c r="A26" s="5">
+        <v>46064.62401814815</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="7">
+        <v>46048.0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>46057.0</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" ht="22.5" customHeight="1">
+      <c r="A27" s="5">
+        <v>46064.69173711806</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="7">
+        <v>45993.0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>46053.0</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" ht="22.5" customHeight="1">
+      <c r="A28" s="5">
+        <v>46064.70440322917</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="7">
+        <v>45951.0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>46065.0</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" ht="22.5" customHeight="1">
+      <c r="A29" s="5">
+        <v>46064.718795127315</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="7">
+        <v>45951.0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>46035.0</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" ht="22.5" customHeight="1">
+      <c r="A30" s="5">
+        <v>46064.73015209491</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="7">
+        <v>45965.0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>46057.0</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" ht="22.5" customHeight="1">
+      <c r="A31" s="5">
+        <v>46064.75027609954</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="7">
+        <v>46042.0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>46057.0</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" ht="22.5" customHeight="1">
+      <c r="A32" s="5">
+        <v>46064.786485578705</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="7">
+        <v>45957.0</v>
+      </c>
+      <c r="F32" s="7">
+        <v>46051.0</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" ht="22.5" customHeight="1">
+      <c r="A33" s="5">
+        <v>46064.78652570602</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="7">
+        <v>45957.0</v>
+      </c>
+      <c r="F33" s="7">
+        <v>46051.0</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" ht="22.5" customHeight="1">
+      <c r="A34" s="5">
+        <v>46064.808632002314</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="7">
+        <v>45965.0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>45993.0</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" ht="22.5" customHeight="1">
+      <c r="A35" s="5">
+        <v>46064.84859675926</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="7">
+        <v>45965.0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>46055.0</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" ht="22.5" customHeight="1">
+      <c r="A36" s="5">
+        <v>46064.856422997684</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="7">
+        <v>46049.0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>46057.0</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" ht="22.5" customHeight="1">
+      <c r="A37" s="5">
+        <v>46064.89309146991</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="7">
+        <v>46029.0</v>
+      </c>
+      <c r="F37" s="7">
+        <v>46054.0</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" ht="22.5" customHeight="1">
+      <c r="A38" s="5">
+        <v>46064.902990682865</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="7">
+        <v>45965.0</v>
+      </c>
+      <c r="F38" s="7">
+        <v>46004.0</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q38" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R38" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" ht="22.5" customHeight="1">
+      <c r="A39" s="5">
+        <v>46064.903054317125</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="7">
+        <v>45965.0</v>
+      </c>
+      <c r="F39" s="7">
+        <v>46035.0</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q39" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R39" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" ht="22.5" customHeight="1">
+      <c r="A40" s="5">
+        <v>46064.91709934028</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E40" s="7">
+        <v>46025.0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>46065.0</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="P40" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q40" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R40" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" ht="22.5" customHeight="1">
+      <c r="A41" s="5">
+        <v>46064.91924299768</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E41" s="7">
+        <v>46007.0</v>
+      </c>
+      <c r="F41" s="7">
+        <v>46057.0</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R41" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" ht="22.5" customHeight="1">
+      <c r="A42" s="5">
+        <v>46064.9195790625</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E42" s="7">
+        <v>46007.0</v>
+      </c>
+      <c r="F42" s="7">
+        <v>46057.0</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O42" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="P42" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q42" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" ht="22.5" customHeight="1">
+      <c r="A43" s="5">
+        <v>46064.92675012731</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" s="7">
+        <v>46045.0</v>
+      </c>
+      <c r="F43" s="7">
+        <v>46057.0</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q43" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R43" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" ht="22.5" customHeight="1">
+      <c r="A44" s="5">
+        <v>46064.93244859954</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="7">
+        <v>45965.0</v>
+      </c>
+      <c r="F44" s="7">
+        <v>46057.0</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O44" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q44" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R44" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" ht="22.5" customHeight="1">
+      <c r="A45" s="5">
+        <v>46064.93773719907</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="7">
+        <v>46048.0</v>
+      </c>
+      <c r="F45" s="7">
+        <v>46057.0</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R45" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" ht="22.5" customHeight="1">
+      <c r="A46" s="5">
+        <v>46064.94029326389</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="7">
+        <v>46030.0</v>
+      </c>
+      <c r="F46" s="7">
+        <v>46057.0</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O46" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P46" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q46" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R46" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" ht="22.5" customHeight="1">
+      <c r="A47" s="5">
+        <v>46064.94031200232</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="7">
+        <v>46030.0</v>
+      </c>
+      <c r="F47" s="7">
+        <v>46057.0</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P47" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q47" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R47" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
   <tableParts count="1">

--- a/answers.xlsx
+++ b/answers.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ja_nnik/uvprojects/KVG_Ulf_Selfassessment/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BD2E37-1F24-FB43-9745-EA28A951BD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Formularantworten 1" sheetId="1" r:id="rId5"/>
+    <sheet name="Formularantworten 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="262">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -687,9 +696,6 @@
     <t>jannik.j.schneider@stud.leuphana.de</t>
   </si>
   <si>
-    <t>Jannik</t>
-  </si>
-  <si>
     <t>S: a big group of students have to be organised to collaborate effectively 
 T: a somewhat not pathetic presentation, proposing optimised bus routes for the KVG in the Landkreis of Lüneburg.
 A: setting up Google Docs, weekly agenda &amp; GitHub Repo; preparing and moderating weekly in class sessions, coordination of goals and deadlines for groups
@@ -1011,9 +1017,6 @@
     <t>lucrezia.chiappo@stud.leuphana.de</t>
   </si>
   <si>
-    <t>Chiappo Lucrezia</t>
-  </si>
-  <si>
     <t xml:space="preserve">No perfect bus logistic
 Find the best algorithm to fit the problem
 I helped to choose the algorithm (GA) and code it to find the perfect solution
@@ -1053,24 +1056,98 @@
     <t>On the technical side, I deepened my understanding of algorithm design and optimization, particularly Genetic Algorithms, including concepts like population initialization, fitness calculation, mutation, and selection. I learned to translate complex mathematical constraints into functional code and work with structured data. I also gained hands-on experience in implementing alternative approaches to test and cross-verify solutions, debugging complex code, and integrating multiple components to ensure correctness and efficiency. Additionally, I improved my skills in working with Python libraries.
 On the soft skills side, I enhanced my problem-solving and analytical thinking by understanding complex algorithms and cross-verifying outcomes. I also improved my adaptability and collaboration skills, as I joined an ongoing project and had to quickly get up to speed with the team’s work and contribute effectively.</t>
   </si>
+  <si>
+    <t>mayurodedra.07j@gmail.com</t>
+  </si>
+  <si>
+    <t>Mayurbhai Jakharabhai Odedra</t>
+  </si>
+  <si>
+    <t>The problem involved modifying bus routes for pupils to ensure they are optimized and efficient while considering the given constraints.
+Our objective was to analyze and identify the most suitable algorithm that could be applied effectively to our specific use case. 
+I conducted a literature review to explore algorithms that address similar routing problems. While each group member selected a different approach, I initially chose Ant Colony Optimization (ACO), as it had been applied successfully in a research paper on bus routing problems. Later, I transitioned my focus to Linear Programming methods.
+At last, we compiled a list of potential algorithms and selected Simulated Annealing (SA) as the approach that best fit our requirements.</t>
+  </si>
+  <si>
+    <t>From a technical perspective, I strengthened my ability to conduct literature research, analyse optimisation algorithms.
+In terms of soft skills, I can say I developed better collaboration and communication skills through discussions with team members about algorithm selection.</t>
+  </si>
+  <si>
+    <t>The problem focused on modifying bus routes for pupils to ensure they were optimized and efficient while respecting the given constraints.
+Our objective was to determine the best possible routes using a Linear Programming approach. 
+I developed the initial draft of the mathematical constraints and later participated in team discussions to refine and simplify them. I also implemented the first version of the Python code, including the constraint modeling and CPLEX integration, which was subsequently improved collaboratively with my teammates. In addition, I managed the technical aspects required to adapt and execute the code on CPU clusters and to generate and share the resulting and log outputs.
+At last, we achieved several promising results, although some solutions were not fully optimized.</t>
+  </si>
+  <si>
+    <t>On technical side, I enhanced my Python programming skills and gained practical experience working with CPLEX and the DOcplex Python API. I improved my ability to formulate mathematical constraints directly in Python and learned various server-related commands and workflows required to execute models on CPU clusters, including managing execution processes and logging outputs.
+In terms of soft skills, I learned significantly from collaborating with my teammates, particularly in mathematically formulating constraints and making decisions by carefully considering different situations. I further developed my problem-solving and critical-thinking abilities, as well as my capacity to translate theoretical concepts from academic literature into practical implementations.</t>
+  </si>
+  <si>
+    <t>everything was good</t>
+  </si>
+  <si>
+    <t>ellaine.s.salvador@stud.leuphana.de</t>
+  </si>
+  <si>
+    <t>Ellaine Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Situation: We were given a lot of different datasets and files that needed to be understood and organized before further analysis could take place.
+Task: Our goal was to interpret the data files, clarify what the different variables represented, delete unnecessary data and structure the information so it would be easier for the further teams to use the data.
+Action: I focused specifically on the school-related data. I examined the types of schools included, their locations, the regions they belonged to and details such as when does the school start. I reviewed the data from the excel files, pdfs and the internet to identify important data and fill in missing data. Then I documented my findings in an excel file so the rest of the group could easily understand and work with the new dataset.
+Result: As a result, our group developed a clearer understanding of the database. Reduced unnecessary data, filled in missing data and kept only the important variables structured into four main dataframes: pupils, bus stops, constraints and schools. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On the technical side, I gained hands-on experience working with geospatial data, which was new to me. I learned how to interpret and visualize geographic information using tools such as OpenStreetMap. I also developed skills in gathering, cleaning and merging datasets (more so also for the baseline group). Combining data is not just about reading through files, but also combining data in a way that others understand the data.
+On the soft skill side, I strengthened my documentation practices. I learned that documenting each step of the process is essential, not just for delivering a final product, but for ensuring transparency and error management. Good documentation makes it easier to track down issues and allows others ti understand and reproduce the work. I also became more aware that something that seems clear to me may not to be clear to others. This improved my communication skills and encouraged me to explain my work in a structured and clear way. Moreover, my participation in the data documentation team strengthened my understanding of the problem and the data.   </t>
+  </si>
+  <si>
+    <t>Situation: I was part of the presentation group, and we were responsible for creating a clear and professional presentation for our project results. 
+Task: Our goal was to develop the content and design of the presentation. in a way that our findings could be effectively communicated to the people from the Landkreis. 
+Action: I contributed by developing content for the data documentation slides (creating one of the map graphics). Moreover, I was responsible for the styling and design of the presentation, including the layout, formatting and the consistency of the design. I also reviewed the slides for the spelling and clarity to ensure that we have a polished final result.
+Result: As a result, we delivered a well-structured and visually appealing presentation suited for our audience.</t>
+  </si>
+  <si>
+    <t>I developed stronger presentation, visualization and design skills. I learned that creating good content is one thing, but making it visually appealing and easy to follow is another. In a presentation, not just your findings are important, but also your target audience. When creating slides, you have to keep the audience in mind to ensure they understand the content clearly and easily. Paying attention to details such as font type, font size, spelling, consistent structure and color choices may seem minor or unnecessary. However, in my opinion, it is precisely these details that make a presentation not just look good but professional and polished. Furthermore, I was able to contribute to a presentation even when I was not the one presenting. I learned how to build on someone else's ideas and refine them visually. Creating the slides was truly collaborative.</t>
+  </si>
+  <si>
+    <t>Tasks and deadlines were clearly defined and well managed., Deadlines were discussed more or less already in the big group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Situation: As part of the Baseline &amp; Evaluation Group, our challenge was to assess how the current bus network in our target regions was performing wit h respect to our defined constraints and to evaluate whether the proposed new bus networks would perform better. 
+Task: Our goal was to establish a reliable baseline of the existing bus network and identify suitable data sources and tools to analyze and compare both the current and proposed networks.
+Action: I took responsibility for the initial baseline research. I researched how we could gather the necessary data and explored available tools, including Python packages, API access to KVG and HVV data and visited the KVG information center at Lüneburg ZOB to collect available materials (here, I also got the info that KVG will change to Moin during our project timeline). I initially also collected and downloaded bus schedules in PDF format, but we quickly realized that manually extracting route information and transferring it into CSV or Excel was inefficient and prone to errors. As a result, I explored alternative data sources and discovered that the raw HVV data was publicly available through the Transparenzportal Hamburg. We decided to work with the raw dataset instead. While other team members were building an algorithm that matches the bus routes to pupils, I attempted to merge route information from the raw files with the data from the Landkreis files, but these contained inconsistent and sometimes contradictory information. After identifying these issues, we concluded that the other approach would be more efficient and reliable. Afterwards, I gathered all the information from our group meetings about possible evaluation criteria. 
+Result: We identified a more suitable data source to establish a strong and (somewhat) accurate baseline for our analysis. Moreover, we found comparable criteria to evaluate the existing and proposed bus networks more effectively. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I improved my ability to merge and compare different data sources. I learned that combining datasets is more complex than it initially appears. Differences in structure, formatting and spelling can easily lead to inconsistencies. I also realized how important data access is. For example, having direct API access to HVV data would likely have made the process more efficient. However, since we did not have API access, the expertise of the other team members helped to adapt and find alternative ways to work with the available data. On the soft skill side, I developed greater resilience and adaptability. It was sometimes frustrating to know that something in the data was incorrect but not immediately be able to pinpoint what the issue is. Additionally, working with constraints that we could not control thought me to be flexible and solution-oriented. Instead on focusing on what we lacked, other team members helped me understand to concentrate on making the best use of the resources available to us. They also were able to find a different solution. This teamwork also showed me how important clear communication and regular coordination is within the team. At times, it wasn't entirely clear which tasks had already been completed. I appreciate my team members' initiative and their ability to solve issues independently and I hope that I was able to support them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasks and deadlines were planned but needed frequent adjustment., </t>
+  </si>
+  <si>
+    <t>Jannik Schneider</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1079,82 +1156,40 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF5B3F86"/>
-          <bgColor rgb="FF5B3F86"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8F9FA"/>
-          <bgColor rgb="FFF8F9FA"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <border>
         <left style="thin">
@@ -1171,54 +1206,78 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F9FA"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF5B3F86"/>
+          <bgColor rgb="FF5B3F86"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="4" pivot="0" name="Formularantworten 1-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-      <tableStyleElement dxfId="4" size="0" type="wholeTable"/>
+    <tableStyle name="Formularantworten 1-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" size="0" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="secondRowStripe" dxfId="1"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:R47" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:R52">
   <tableColumns count="18">
-    <tableColumn name="Zeitstempel" id="1"/>
-    <tableColumn name="E-Mail-Adresse" id="2"/>
-    <tableColumn name="Name" id="3"/>
-    <tableColumn name="Select the team you wish to review right now." id="4"/>
-    <tableColumn name="A. Start date of your participation in the respective group." id="5"/>
-    <tableColumn name="B. End date of your participation in the respective group." id="6"/>
-    <tableColumn name="C. By using STAR method give answer for respective group._x000a_The STAR Method:_x000a_Situation: What was the problem?_x000a_Task: What was the goal?_x000a_Action: What did you specifically do?_x000a_Result: What was the outcome?" id="7"/>
-    <tableColumn name="A. Which technical and/or soft skill(s) did you improve / learn during your participation in the group?" id="8"/>
-    <tableColumn name="A. How did your group decide on deadlines and divide tasks?" id="9"/>
-    <tableColumn name="B. Overall, how would you describe the task-division process?" id="10"/>
-    <tableColumn name="C. When disagreements occurred, how were they handled?" id="11"/>
-    <tableColumn name="A. Did working as a group improve the final outcome?" id="12"/>
-    <tableColumn name="B. If this group worked together again, what should be continued?" id="13"/>
-    <tableColumn name="C. What should the group stop doing in future projects?" id="14"/>
-    <tableColumn name="D.  What should the group start doing in future projects?" id="15"/>
-    <tableColumn name="A. My Contribution" id="16"/>
-    <tableColumn name="B. Group Dynamics" id="17"/>
-    <tableColumn name="C.  Reflection on this Questionnaire" id="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Zeitstempel"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="E-Mail-Adresse"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Select the team you wish to review right now."/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="A. Start date of your participation in the respective group."/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="B. End date of your participation in the respective group."/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="C. By using STAR method give answer for respective group._x000a_The STAR Method:_x000a_Situation: What was the problem?_x000a_Task: What was the goal?_x000a_Action: What did you specifically do?_x000a_Result: What was the outcome?"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="A. Which technical and/or soft skill(s) did you improve / learn during your participation in the group?"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="A. How did your group decide on deadlines and divide tasks?"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="B. Overall, how would you describe the task-division process?"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="C. When disagreements occurred, how were they handled?"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="A. Did working as a group improve the final outcome?"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="B. If this group worked together again, what should be continued?"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="C. What should the group stop doing in future projects?"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="D.  What should the group start doing in future projects?"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="A. My Contribution"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="B. Group Dynamics"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="C.  Reflection on this Questionnaire"/>
   </tableColumns>
-  <tableStyleInfo name="Formularantworten 1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Formularantworten 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1408,31 +1467,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="18.88"/>
-    <col customWidth="1" min="4" max="15" width="37.63"/>
-    <col customWidth="1" min="16" max="16" width="18.88"/>
-    <col customWidth="1" min="17" max="17" width="19.13"/>
-    <col customWidth="1" min="18" max="18" width="30.75"/>
-    <col customWidth="1" min="19" max="24" width="18.88"/>
+    <col min="1" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="15" width="37.6640625" customWidth="1"/>
+    <col min="16" max="16" width="18.83203125" customWidth="1"/>
+    <col min="17" max="17" width="19.1640625" customWidth="1"/>
+    <col min="18" max="18" width="30.6640625" customWidth="1"/>
+    <col min="19" max="24" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" customHeight="1">
+    <row r="1" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1488,7 +1550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="22.5" customHeight="1">
+    <row r="2" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>46057.744727673606</v>
       </c>
@@ -1502,10 +1564,10 @@
         <v>20</v>
       </c>
       <c r="E2" s="4">
-        <v>45992.0</v>
+        <v>45992</v>
       </c>
       <c r="F2" s="4">
-        <v>46048.0</v>
+        <v>46048</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>21</v>
@@ -1544,9 +1606,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" ht="22.5" customHeight="1">
+    <row r="3" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
-        <v>46057.75262537037</v>
+        <v>46057.752625370369</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>18</v>
@@ -1558,10 +1620,10 @@
         <v>33</v>
       </c>
       <c r="E3" s="4">
-        <v>46035.0</v>
+        <v>46035</v>
       </c>
       <c r="F3" s="4">
-        <v>46052.0</v>
+        <v>46052</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>34</v>
@@ -1600,7 +1662,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" ht="22.5" customHeight="1">
+    <row r="4" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>46057.79067347222</v>
       </c>
@@ -1614,10 +1676,10 @@
         <v>43</v>
       </c>
       <c r="E4" s="4">
-        <v>45963.0</v>
+        <v>45963</v>
       </c>
       <c r="F4" s="4">
-        <v>46038.0</v>
+        <v>46038</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>44</v>
@@ -1656,9 +1718,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" ht="22.5" customHeight="1">
+    <row r="5" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>46057.80899283565</v>
+        <v>46057.808992835649</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>41</v>
@@ -1670,10 +1732,10 @@
         <v>20</v>
       </c>
       <c r="E5" s="4">
-        <v>45993.0</v>
+        <v>45993</v>
       </c>
       <c r="F5" s="4">
-        <v>46043.0</v>
+        <v>46043</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>50</v>
@@ -1712,7 +1774,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" ht="22.5" customHeight="1">
+    <row r="6" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>46060.662842488426</v>
       </c>
@@ -1726,10 +1788,10 @@
         <v>57</v>
       </c>
       <c r="E6" s="4">
-        <v>45966.0</v>
+        <v>45966</v>
       </c>
       <c r="F6" s="4">
-        <v>46003.0</v>
+        <v>46003</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>58</v>
@@ -1768,9 +1830,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" ht="22.5" customHeight="1">
+    <row r="7" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>46060.67098108796</v>
+        <v>46060.670981087962</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>64</v>
@@ -1782,10 +1844,10 @@
         <v>65</v>
       </c>
       <c r="E7" s="4">
-        <v>45979.0</v>
+        <v>45979</v>
       </c>
       <c r="F7" s="4">
-        <v>46051.0</v>
+        <v>46051</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>66</v>
@@ -1824,9 +1886,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" ht="22.5" customHeight="1">
+    <row r="8" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>46060.86569002314</v>
+        <v>46060.865690023144</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>68</v>
@@ -1838,10 +1900,10 @@
         <v>57</v>
       </c>
       <c r="E8" s="4">
-        <v>45965.0</v>
+        <v>45965</v>
       </c>
       <c r="F8" s="4">
-        <v>46003.0</v>
+        <v>46003</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>70</v>
@@ -1880,7 +1942,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" ht="22.5" customHeight="1">
+    <row r="9" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>46061.47473858796</v>
       </c>
@@ -1894,10 +1956,10 @@
         <v>77</v>
       </c>
       <c r="E9" s="4">
-        <v>46049.0</v>
+        <v>46049</v>
       </c>
       <c r="F9" s="4">
-        <v>46057.0</v>
+        <v>46057</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>78</v>
@@ -1936,7 +1998,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" ht="22.5" customHeight="1">
+    <row r="10" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>46061.949985914354</v>
       </c>
@@ -1950,10 +2012,10 @@
         <v>77</v>
       </c>
       <c r="E10" s="4">
-        <v>46035.0</v>
+        <v>46035</v>
       </c>
       <c r="F10" s="4">
-        <v>46057.0</v>
+        <v>46057</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>81</v>
@@ -1992,9 +2054,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" ht="22.5" customHeight="1">
+    <row r="11" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
-        <v>46061.95260121528</v>
+        <v>46061.952601215278</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>85</v>
@@ -2006,10 +2068,10 @@
         <v>87</v>
       </c>
       <c r="E11" s="4">
-        <v>45965.0</v>
+        <v>45965</v>
       </c>
       <c r="F11" s="4">
-        <v>46049.0</v>
+        <v>46049</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>88</v>
@@ -2048,9 +2110,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" ht="22.5" customHeight="1">
+    <row r="12" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
-        <v>46061.95260202546</v>
+        <v>46061.952602025463</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>91</v>
@@ -2062,10 +2124,10 @@
         <v>87</v>
       </c>
       <c r="E12" s="4">
-        <v>45965.0</v>
+        <v>45965</v>
       </c>
       <c r="F12" s="4">
-        <v>45684.0</v>
+        <v>45684</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>93</v>
@@ -2104,9 +2166,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" ht="22.5" customHeight="1">
+    <row r="13" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
-        <v>46061.95881776621</v>
+        <v>46061.958817766208</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>85</v>
@@ -2118,10 +2180,10 @@
         <v>77</v>
       </c>
       <c r="E13" s="4">
-        <v>46038.0</v>
+        <v>46038</v>
       </c>
       <c r="F13" s="4">
-        <v>46057.0</v>
+        <v>46057</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>95</v>
@@ -2160,9 +2222,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" ht="22.5" customHeight="1">
+    <row r="14" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
-        <v>46062.70733528935</v>
+        <v>46062.707335289349</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>97</v>
@@ -2174,10 +2236,10 @@
         <v>99</v>
       </c>
       <c r="E14" s="4">
-        <v>45951.0</v>
+        <v>45951</v>
       </c>
       <c r="F14" s="4">
-        <v>46057.0</v>
+        <v>46057</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>100</v>
@@ -2216,7 +2278,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" ht="22.5" customHeight="1">
+    <row r="15" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>46062.72969255787</v>
       </c>
@@ -2230,10 +2292,10 @@
         <v>43</v>
       </c>
       <c r="E15" s="4">
-        <v>45951.0</v>
+        <v>45951</v>
       </c>
       <c r="F15" s="4">
-        <v>45982.0</v>
+        <v>45982</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>104</v>
@@ -2272,9 +2334,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" ht="22.5" customHeight="1">
+    <row r="16" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
-        <v>46062.74839512732</v>
+        <v>46062.748395127317</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>97</v>
@@ -2286,10 +2348,10 @@
         <v>65</v>
       </c>
       <c r="E16" s="4">
-        <v>45982.0</v>
+        <v>45982</v>
       </c>
       <c r="F16" s="4">
-        <v>46057.0</v>
+        <v>46057</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>107</v>
@@ -2328,9 +2390,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" ht="22.5" customHeight="1">
+    <row r="17" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
-        <v>46062.75885258101</v>
+        <v>46062.758852581013</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>97</v>
@@ -2342,10 +2404,10 @@
         <v>77</v>
       </c>
       <c r="E17" s="4">
-        <v>46045.0</v>
+        <v>46045</v>
       </c>
       <c r="F17" s="4">
-        <v>46057.0</v>
+        <v>46057</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>109</v>
@@ -2384,9 +2446,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" ht="22.5" customHeight="1">
+    <row r="18" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
-        <v>46062.91785037037</v>
+        <v>46062.917850370373</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>113</v>
@@ -2398,10 +2460,10 @@
         <v>99</v>
       </c>
       <c r="E18" s="4">
-        <v>45951.0</v>
+        <v>45951</v>
       </c>
       <c r="F18" s="4">
-        <v>46057.0</v>
+        <v>46057</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>115</v>
@@ -2440,9 +2502,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" ht="22.5" customHeight="1">
+    <row r="19" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
-        <v>46062.92984726852</v>
+        <v>46062.929847268519</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>113</v>
@@ -2454,10 +2516,10 @@
         <v>57</v>
       </c>
       <c r="E19" s="4">
-        <v>45951.0</v>
+        <v>45951</v>
       </c>
       <c r="F19" s="4">
-        <v>46003.0</v>
+        <v>46003</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>119</v>
@@ -2496,9 +2558,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" ht="22.5" customHeight="1">
+    <row r="20" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
-        <v>46063.0989362963</v>
+        <v>46063.098936296301</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>123</v>
@@ -2510,10 +2572,10 @@
         <v>87</v>
       </c>
       <c r="E20" s="4">
-        <v>45958.0</v>
+        <v>45958</v>
       </c>
       <c r="F20" s="4">
-        <v>46057.0</v>
+        <v>46057</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>125</v>
@@ -2552,1522 +2614,1802 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="22.5" customHeight="1">
-      <c r="A21" s="5">
-        <v>46063.96014556713</v>
-      </c>
-      <c r="B21" s="6" t="s">
+    <row r="21" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>46063.960145567129</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="7">
-        <v>45989.0</v>
-      </c>
-      <c r="F21" s="7">
-        <v>46057.0</v>
-      </c>
-      <c r="G21" s="6" t="s">
+      <c r="E21" s="4">
+        <v>45989</v>
+      </c>
+      <c r="F21" s="4">
+        <v>46057</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="M21" s="6" t="s">
+      <c r="M21" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="N21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="O21" s="6" t="s">
+      <c r="O21" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="P21" s="6" t="s">
+      <c r="P21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R21" s="6" t="s">
+      <c r="Q21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R21" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" ht="22.5" customHeight="1">
-      <c r="A22" s="5">
-        <v>46063.96648971065</v>
-      </c>
-      <c r="B22" s="6" t="s">
+    <row r="22" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>46063.966489710649</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="7">
-        <v>46049.0</v>
-      </c>
-      <c r="F22" s="7">
-        <v>46057.0</v>
-      </c>
-      <c r="G22" s="6" t="s">
+      <c r="E22" s="4">
+        <v>46049</v>
+      </c>
+      <c r="F22" s="4">
+        <v>46057</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M22" s="6" t="s">
+      <c r="M22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N22" s="6" t="s">
+      <c r="N22" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="O22" s="6" t="s">
+      <c r="O22" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="P22" s="6" t="s">
+      <c r="P22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R22" s="6" t="s">
+      <c r="Q22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R22" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" ht="22.5" customHeight="1">
-      <c r="A23" s="5">
+    <row r="23" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
         <v>46064.593813472224</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="7">
-        <v>45993.0</v>
-      </c>
-      <c r="F23" s="7">
-        <v>46064.0</v>
-      </c>
-      <c r="G23" s="6" t="s">
+      <c r="E23" s="4">
+        <v>45993</v>
+      </c>
+      <c r="F23" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="M23" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="N23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O23" s="6" t="s">
+      <c r="O23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="P23" s="6" t="s">
+      <c r="P23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R23" s="6" t="s">
+      <c r="Q23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R23" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" ht="22.5" customHeight="1">
-      <c r="A24" s="5">
-        <v>46064.61931741898</v>
-      </c>
-      <c r="B24" s="6" t="s">
+    <row r="24" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>46064.619317418983</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="7">
-        <v>45965.0</v>
-      </c>
-      <c r="F24" s="7">
-        <v>46000.0</v>
-      </c>
-      <c r="G24" s="6" t="s">
+      <c r="E24" s="4">
+        <v>45965</v>
+      </c>
+      <c r="F24" s="4">
+        <v>46000</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="K24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M24" s="6" t="s">
+      <c r="M24" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="N24" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="O24" s="6" t="s">
+      <c r="O24" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="P24" s="6" t="s">
+      <c r="P24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q24" s="6" t="s">
+      <c r="Q24" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="R24" s="6" t="s">
+      <c r="R24" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" ht="22.5" customHeight="1">
-      <c r="A25" s="5">
+    <row r="25" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
         <v>46064.62219465278</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="7">
-        <v>45993.0</v>
-      </c>
-      <c r="F25" s="7">
-        <v>46057.0</v>
-      </c>
-      <c r="G25" s="6" t="s">
+      <c r="E25" s="4">
+        <v>45993</v>
+      </c>
+      <c r="F25" s="4">
+        <v>46057</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="M25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N25" s="6" t="s">
+      <c r="N25" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="O25" s="6" t="s">
+      <c r="O25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P25" s="6" t="s">
+      <c r="P25" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R25" s="6" t="s">
+      <c r="Q25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R25" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" ht="22.5" customHeight="1">
-      <c r="A26" s="5">
-        <v>46064.62401814815</v>
-      </c>
-      <c r="B26" s="6" t="s">
+    <row r="26" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>46064.624018148148</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="7">
-        <v>46048.0</v>
-      </c>
-      <c r="F26" s="7">
-        <v>46057.0</v>
-      </c>
-      <c r="G26" s="6" t="s">
+      <c r="E26" s="4">
+        <v>46048</v>
+      </c>
+      <c r="F26" s="4">
+        <v>46057</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="J26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K26" s="6" t="s">
+      <c r="K26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="L26" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M26" s="6" t="s">
+      <c r="M26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N26" s="6" t="s">
+      <c r="N26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O26" s="6" t="s">
+      <c r="O26" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="P26" s="6" t="s">
+      <c r="P26" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q26" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R26" s="6" t="s">
+      <c r="Q26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R26" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" ht="22.5" customHeight="1">
-      <c r="A27" s="5">
-        <v>46064.69173711806</v>
-      </c>
-      <c r="B27" s="6" t="s">
+    <row r="27" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>46064.691737118061</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="7">
-        <v>45993.0</v>
-      </c>
-      <c r="F27" s="7">
-        <v>46053.0</v>
-      </c>
-      <c r="G27" s="6" t="s">
+      <c r="E27" s="4">
+        <v>45993</v>
+      </c>
+      <c r="F27" s="4">
+        <v>46053</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="K27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="M27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="N27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="O27" s="6" t="s">
+      <c r="O27" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="P27" s="6" t="s">
+      <c r="P27" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q27" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R27" s="6" t="s">
+      <c r="Q27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R27" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="28" ht="22.5" customHeight="1">
-      <c r="A28" s="5">
-        <v>46064.70440322917</v>
-      </c>
-      <c r="B28" s="6" t="s">
+    <row r="28" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>46064.704403229167</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="4">
+        <v>45951</v>
+      </c>
+      <c r="F28" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" s="7">
-        <v>45951.0</v>
-      </c>
-      <c r="F28" s="7">
-        <v>46065.0</v>
-      </c>
-      <c r="G28" s="6" t="s">
+      <c r="H28" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="I28" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="J28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="O28" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>46064.718795127315</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="4">
+        <v>45951</v>
+      </c>
+      <c r="F29" s="4">
+        <v>46035</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>46064.730152094911</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="4">
+        <v>45965</v>
+      </c>
+      <c r="F30" s="4">
+        <v>46057</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>46064.750276099541</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="4">
+        <v>46042</v>
+      </c>
+      <c r="F31" s="4">
+        <v>46057</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>46064.786485578705</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="4">
+        <v>45957</v>
+      </c>
+      <c r="F32" s="4">
+        <v>46051</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>46064.786525706018</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="4">
+        <v>45957</v>
+      </c>
+      <c r="F33" s="4">
+        <v>46051</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
+        <v>46064.808632002314</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="4">
+        <v>45965</v>
+      </c>
+      <c r="F34" s="4">
+        <v>45993</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="K34" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <v>46064.848596759257</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="4">
+        <v>45965</v>
+      </c>
+      <c r="F35" s="4">
+        <v>46055</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L35" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M28" s="6" t="s">
+      <c r="M35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
+        <v>46064.856422997684</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="4">
+        <v>46049</v>
+      </c>
+      <c r="F36" s="4">
+        <v>46057</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
+        <v>46064.893091469909</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="4">
+        <v>46029</v>
+      </c>
+      <c r="F37" s="4">
+        <v>46054</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
+        <v>46064.902990682865</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="4">
+        <v>45965</v>
+      </c>
+      <c r="F38" s="4">
+        <v>46004</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2">
+        <v>46064.903054317125</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="4">
+        <v>45965</v>
+      </c>
+      <c r="F39" s="4">
+        <v>46035</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
+        <v>46064.91709934028</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E40" s="4">
+        <v>46025</v>
+      </c>
+      <c r="F40" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2">
+        <v>46064.919242997683</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E41" s="4">
+        <v>46007</v>
+      </c>
+      <c r="F41" s="4">
+        <v>46057</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2">
+        <v>46064.919579062502</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E42" s="4">
+        <v>46007</v>
+      </c>
+      <c r="F42" s="4">
+        <v>46057</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="2">
+        <v>46064.926750127313</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" s="4">
+        <v>46045</v>
+      </c>
+      <c r="F43" s="4">
+        <v>46057</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="2">
+        <v>46064.932448599538</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="4">
+        <v>45965</v>
+      </c>
+      <c r="F44" s="4">
+        <v>46057</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M44" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N28" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="O28" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="P28" s="6" t="s">
+      <c r="N44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="2">
+        <v>46064.93773719907</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="4">
+        <v>46048</v>
+      </c>
+      <c r="F45" s="4">
+        <v>46057</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q28" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R28" s="6" t="s">
+      <c r="Q45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="2">
+        <v>46064.940293263891</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="4">
+        <v>46030</v>
+      </c>
+      <c r="F46" s="4">
+        <v>46057</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R46" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" ht="22.5" customHeight="1">
-      <c r="A29" s="5">
-        <v>46064.718795127315</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D29" s="6" t="s">
+    <row r="47" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="2">
+        <v>46064.94031200232</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="4">
+        <v>46030</v>
+      </c>
+      <c r="F47" s="4">
+        <v>46057</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="2">
+        <v>46065.412736944447</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" s="4">
+        <v>45958</v>
+      </c>
+      <c r="F48" s="4">
+        <v>45986</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
+        <v>46065.429095821761</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="4">
+        <v>46070</v>
+      </c>
+      <c r="F49" s="4">
+        <v>46049</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2">
+        <v>46065.469701354166</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="7">
-        <v>45951.0</v>
-      </c>
-      <c r="F29" s="7">
-        <v>46035.0</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29" s="6" t="s">
+      <c r="E50" s="4">
+        <v>45958</v>
+      </c>
+      <c r="F50" s="4">
+        <v>46057</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R50" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
+        <v>46065.547029780093</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="4">
+        <v>46038</v>
+      </c>
+      <c r="F51" s="4">
+        <v>46057</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
+        <v>46065.613846053238</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="4">
+        <v>45993</v>
+      </c>
+      <c r="F52" s="4">
+        <v>46052</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="J52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="K52" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L52" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O29" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="P29" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q29" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R29" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" ht="22.5" customHeight="1">
-      <c r="A30" s="5">
-        <v>46064.73015209491</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="7">
-        <v>45965.0</v>
-      </c>
-      <c r="F30" s="7">
-        <v>46057.0</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="P30" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q30" s="6" t="s">
+      <c r="M52" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q52" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="R30" s="6" t="s">
+      <c r="R52" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" ht="22.5" customHeight="1">
-      <c r="A31" s="5">
-        <v>46064.75027609954</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="7">
-        <v>46042.0</v>
-      </c>
-      <c r="F31" s="7">
-        <v>46057.0</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O31" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q31" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R31" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" ht="22.5" customHeight="1">
-      <c r="A32" s="5">
-        <v>46064.786485578705</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" s="7">
-        <v>45957.0</v>
-      </c>
-      <c r="F32" s="7">
-        <v>46051.0</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O32" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="P32" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q32" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R32" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" ht="22.5" customHeight="1">
-      <c r="A33" s="5">
-        <v>46064.78652570602</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" s="7">
-        <v>45957.0</v>
-      </c>
-      <c r="F33" s="7">
-        <v>46051.0</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N33" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O33" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="P33" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q33" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R33" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" ht="22.5" customHeight="1">
-      <c r="A34" s="5">
-        <v>46064.808632002314</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="7">
-        <v>45965.0</v>
-      </c>
-      <c r="F34" s="7">
-        <v>45993.0</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O34" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="P34" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q34" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R34" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" ht="22.5" customHeight="1">
-      <c r="A35" s="5">
-        <v>46064.84859675926</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="7">
-        <v>45965.0</v>
-      </c>
-      <c r="F35" s="7">
-        <v>46055.0</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N35" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O35" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="P35" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q35" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R35" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" ht="22.5" customHeight="1">
-      <c r="A36" s="5">
-        <v>46064.856422997684</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="7">
-        <v>46049.0</v>
-      </c>
-      <c r="F36" s="7">
-        <v>46057.0</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M36" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N36" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="O36" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="P36" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q36" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R36" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" ht="22.5" customHeight="1">
-      <c r="A37" s="5">
-        <v>46064.89309146991</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="7">
-        <v>46029.0</v>
-      </c>
-      <c r="F37" s="7">
-        <v>46054.0</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="N37" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="O37" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="P37" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q37" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R37" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" ht="22.5" customHeight="1">
-      <c r="A38" s="5">
-        <v>46064.902990682865</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="7">
-        <v>45965.0</v>
-      </c>
-      <c r="F38" s="7">
-        <v>46004.0</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M38" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N38" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O38" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="P38" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q38" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R38" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" ht="22.5" customHeight="1">
-      <c r="A39" s="5">
-        <v>46064.903054317125</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" s="7">
-        <v>45965.0</v>
-      </c>
-      <c r="F39" s="7">
-        <v>46035.0</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M39" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N39" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O39" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="P39" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q39" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R39" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" ht="22.5" customHeight="1">
-      <c r="A40" s="5">
-        <v>46064.91709934028</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E40" s="7">
-        <v>46025.0</v>
-      </c>
-      <c r="F40" s="7">
-        <v>46065.0</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M40" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="N40" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O40" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="P40" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q40" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R40" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" ht="22.5" customHeight="1">
-      <c r="A41" s="5">
-        <v>46064.91924299768</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E41" s="7">
-        <v>46007.0</v>
-      </c>
-      <c r="F41" s="7">
-        <v>46057.0</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="N41" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O41" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="P41" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q41" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R41" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" ht="22.5" customHeight="1">
-      <c r="A42" s="5">
-        <v>46064.9195790625</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E42" s="7">
-        <v>46007.0</v>
-      </c>
-      <c r="F42" s="7">
-        <v>46057.0</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L42" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M42" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="N42" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O42" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="P42" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q42" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R42" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" ht="22.5" customHeight="1">
-      <c r="A43" s="5">
-        <v>46064.92675012731</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43" s="7">
-        <v>46045.0</v>
-      </c>
-      <c r="F43" s="7">
-        <v>46057.0</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="N43" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="O43" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="P43" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q43" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R43" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" ht="22.5" customHeight="1">
-      <c r="A44" s="5">
-        <v>46064.93244859954</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E44" s="7">
-        <v>45965.0</v>
-      </c>
-      <c r="F44" s="7">
-        <v>46057.0</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L44" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M44" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N44" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O44" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P44" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q44" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R44" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" ht="22.5" customHeight="1">
-      <c r="A45" s="5">
-        <v>46064.93773719907</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="7">
-        <v>46048.0</v>
-      </c>
-      <c r="F45" s="7">
-        <v>46057.0</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L45" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="N45" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O45" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="P45" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q45" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R45" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" ht="22.5" customHeight="1">
-      <c r="A46" s="5">
-        <v>46064.94029326389</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="7">
-        <v>46030.0</v>
-      </c>
-      <c r="F46" s="7">
-        <v>46057.0</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M46" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N46" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O46" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P46" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q46" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R46" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" ht="22.5" customHeight="1">
-      <c r="A47" s="5">
-        <v>46064.94031200232</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47" s="7">
-        <v>46030.0</v>
-      </c>
-      <c r="F47" s="7">
-        <v>46057.0</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N47" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O47" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P47" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q47" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R47" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/answers.xlsx
+++ b/answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ja_nnik/uvprojects/KVG_Ulf_Selfassessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BD2E37-1F24-FB43-9745-EA28A951BD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151F4BE5-F58B-5D48-8AED-2E8EE15DA403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1191,22 +1191,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B3F86"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B3F86"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B3F86"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B3F86"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFF8F9FA"/>
@@ -1230,13 +1214,29 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B3F86"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B3F86"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B3F86"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B3F86"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Formularantworten 1-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" size="0" dxfId="0"/>
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="wholeTable" size="0" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1480,8 +1480,8 @@
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2127,7 +2127,7 @@
         <v>45965</v>
       </c>
       <c r="F12" s="4">
-        <v>45684</v>
+        <v>46049</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>93</v>
@@ -4196,10 +4196,10 @@
         <v>65</v>
       </c>
       <c r="E49" s="4">
-        <v>46070</v>
+        <v>45978</v>
       </c>
       <c r="F49" s="4">
-        <v>46049</v>
+        <v>46048</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>248</v>
